--- a/DatenFiles/__In_Klassen_erarbeitet/2023_BZU_TI23BLe_M/Adressliste.xlsx
+++ b/DatenFiles/__In_Klassen_erarbeitet/2023_BZU_TI23BLe_M/Adressliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\DatenFiles\__In_Klassen_erarbeitet\2023_BZU_TI23BLe_M\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17566B75-509D-4BC0-8CB6-7BA0CBF867D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7DC585-3ABD-4652-9A1D-B27BCAFB30A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{83E8BE38-9732-49D2-B654-EC0F79113139}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>Gender</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Herr</t>
   </si>
   <si>
-    <t>Walter</t>
-  </si>
-  <si>
     <t>Rothlin</t>
   </si>
   <si>
@@ -159,10 +156,40 @@
     <t>PasswortLength</t>
   </si>
   <si>
-    <t>123456</t>
-  </si>
-  <si>
     <t>Minimale Passwort Länge:</t>
+  </si>
+  <si>
+    <t>eMail Schule</t>
+  </si>
+  <si>
+    <t>eMail Privat</t>
+  </si>
+  <si>
+    <t>Hans</t>
+  </si>
+  <si>
+    <t>bzu.ch</t>
+  </si>
+  <si>
+    <t>Ist Lehrer</t>
+  </si>
+  <si>
+    <t>eMail_Domain Lehrer:</t>
+  </si>
+  <si>
+    <t>eMail_Domain Lernede:</t>
+  </si>
+  <si>
+    <t>Vreni</t>
+  </si>
+  <si>
+    <t>Müller</t>
+  </si>
+  <si>
+    <t>Knobelstr. 34</t>
+  </si>
+  <si>
+    <t>Siebnen</t>
   </si>
 </sst>
 </file>
@@ -212,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -368,12 +395,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -394,12 +447,156 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1" tint="4.9989318521683403E-2"/>
@@ -733,264 +930,372 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="19.1796875" customWidth="1"/>
-    <col min="6" max="6" width="6.453125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.90625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="25.36328125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.36328125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.26953125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.90625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7265625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="25.08984375" customWidth="1"/>
-    <col min="15" max="15" width="22.7265625" customWidth="1"/>
-    <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="17" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" customWidth="1"/>
+    <col min="7" max="7" width="6.453125" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" customWidth="1"/>
+    <col min="9" max="9" width="24.81640625" customWidth="1"/>
+    <col min="10" max="10" width="25.36328125" customWidth="1"/>
+    <col min="11" max="11" width="40.7265625" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" customWidth="1"/>
+    <col min="13" max="13" width="18.26953125" customWidth="1"/>
+    <col min="14" max="14" width="10.90625" customWidth="1"/>
+    <col min="15" max="15" width="14.81640625" customWidth="1"/>
+    <col min="16" max="16" width="18.7265625" customWidth="1"/>
+    <col min="17" max="17" width="25.08984375" customWidth="1"/>
+    <col min="18" max="18" width="22.7265625" customWidth="1"/>
+    <col min="19" max="19" width="20" customWidth="1"/>
+    <col min="20" max="20" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="M1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>8855</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="21" t="str">
+        <f>IF(J2="",K2,J2)</f>
+        <v>walter@rothlin.com</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="18" t="str">
+        <f>IF(B2='Set-Up'!$A$2,_xlfn.CONCAT(M2,"@",'Set-Up'!$H$1),_xlfn.CONCAT(M2,"@",'Set-Up'!$H$2))</f>
+        <v>hans.rothlin@bzu.ch</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="10" t="str">
+        <f>_xlfn.CONCAT(LOWER(D2),".",LOWER(E2))</f>
+        <v>hans.rothlin</v>
+      </c>
+      <c r="N2" s="10" t="str">
+        <f>LEFT(D2)</f>
+        <v>H</v>
+      </c>
+      <c r="O2" s="10" t="str">
+        <f>_xlfn.CONCAT(N2,".",E2)</f>
+        <v>H.Rothlin</v>
+      </c>
+      <c r="P2" s="10" t="str">
+        <f>_xlfn.CONCAT(LEFT(D2),".",E2)</f>
+        <v>H.Rothlin</v>
+      </c>
+      <c r="Q2" s="11" t="str">
+        <f>IF(C2="Herr",_xlfn.CONCAT("Sehr geehrter ",C2," ",E2),_xlfn.CONCAT("Sehr geehrte ",C2," ",E2))</f>
+        <v>Sehr geehrter Herr Rothlin</v>
+      </c>
+      <c r="S2" s="15">
+        <v>1234567</v>
+      </c>
+      <c r="T2" s="11">
+        <f>LEN(S2)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8854</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="21" t="str">
+        <f t="shared" ref="I3:I5" si="0">IF(J3="",K3,J3)</f>
+        <v>vreni.müller@stud.bzu.ch</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="18" t="str">
+        <f>IF(B3='Set-Up'!$A$2,_xlfn.CONCAT(M3,"@",'Set-Up'!$H$1),_xlfn.CONCAT(M3,"@",'Set-Up'!$H$2))</f>
+        <v>vreni.müller@stud.bzu.ch</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="10" t="str">
+        <f t="shared" ref="M3" si="1">_xlfn.CONCAT(LOWER(D3),".",LOWER(E3))</f>
+        <v>vreni.müller</v>
+      </c>
+      <c r="N3" s="10" t="str">
+        <f t="shared" ref="N3" si="2">LEFT(D3)</f>
+        <v>V</v>
+      </c>
+      <c r="O3" s="10" t="str">
+        <f t="shared" ref="O3" si="3">_xlfn.CONCAT(N3,".",E3)</f>
+        <v>V.Müller</v>
+      </c>
+      <c r="P3" s="10" t="str">
+        <f t="shared" ref="P3" si="4">_xlfn.CONCAT(LEFT(D3),".",E3)</f>
+        <v>V.Müller</v>
+      </c>
+      <c r="Q3" s="11" t="str">
+        <f t="shared" ref="Q3" si="5">IF(C3="Herr",_xlfn.CONCAT("Sehr geehrter ",C3," ",E3),_xlfn.CONCAT("Sehr geehrte ",C3," ",E3))</f>
+        <v>Sehr geehrte Frau Müller</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="11">
+        <f t="shared" ref="T3" si="6">LEN(S3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="8" t="s">
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8855</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>claudia@rothlin.com</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="18" t="str">
+        <f>IF(B4='Set-Up'!$A$2,_xlfn.CONCAT(M4,"@",'Set-Up'!$H$1),_xlfn.CONCAT(M4,"@",'Set-Up'!$H$2))</f>
+        <v>heidi.collet@stud.bzu.ch</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="10" t="str">
+        <f t="shared" ref="M4:M5" si="7">_xlfn.CONCAT(LOWER(D4),".",LOWER(E4))</f>
+        <v>heidi.collet</v>
+      </c>
+      <c r="N4" s="10" t="str">
+        <f t="shared" ref="N4:N5" si="8">LEFT(D4)</f>
+        <v>H</v>
+      </c>
+      <c r="O4" s="10" t="str">
+        <f t="shared" ref="O4:O5" si="9">_xlfn.CONCAT(N4,".",E4)</f>
+        <v>H.Collet</v>
+      </c>
+      <c r="P4" s="10" t="str">
+        <f t="shared" ref="P4:P5" si="10">_xlfn.CONCAT(LEFT(D4),".",E4)</f>
+        <v>H.Collet</v>
+      </c>
+      <c r="Q4" s="11" t="str">
+        <f t="shared" ref="Q4:Q5" si="11">IF(C4="Herr",_xlfn.CONCAT("Sehr geehrter ",C4," ",E4),_xlfn.CONCAT("Sehr geehrte ",C4," ",E4))</f>
+        <v>Sehr geehrte Frau Collet</v>
+      </c>
+      <c r="S4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="16" t="s">
-        <v>39</v>
+      <c r="T4" s="11">
+        <f t="shared" ref="T4:T5" si="12">LEN(S4)</f>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1">
-        <v>8855</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="10" t="str">
-        <f>_xlfn.CONCAT(LOWER(C2),".",LOWER(D2))</f>
-        <v>walter.rothlin</v>
-      </c>
-      <c r="K2" s="10" t="str">
-        <f>LEFT(C2)</f>
-        <v>W</v>
-      </c>
-      <c r="L2" s="10" t="str">
-        <f>_xlfn.CONCAT(K2,".",D2)</f>
-        <v>W.Rothlin</v>
-      </c>
-      <c r="M2" s="10" t="str">
-        <f>_xlfn.CONCAT(LEFT(C2),".",D2)</f>
-        <v>W.Rothlin</v>
-      </c>
-      <c r="N2" s="11" t="str">
-        <f>IF(B2="Herr",_xlfn.CONCAT("Sehr geehrter ",B2," ",D2),_xlfn.CONCAT("Sehr geehrte ",B2," ",D2))</f>
-        <v>Sehr geehrter Herr Rothlin</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="11">
-        <f>LEN(P2)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1">
-        <v>8855</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="10" t="str">
-        <f t="shared" ref="J3:J4" si="0">_xlfn.CONCAT(LOWER(C3),".",LOWER(D3))</f>
-        <v>heidi.collet</v>
-      </c>
-      <c r="K3" s="10" t="str">
-        <f t="shared" ref="K3:K4" si="1">LEFT(C3)</f>
-        <v>H</v>
-      </c>
-      <c r="L3" s="10" t="str">
-        <f t="shared" ref="L3:L4" si="2">_xlfn.CONCAT(K3,".",D3)</f>
-        <v>H.Collet</v>
-      </c>
-      <c r="M3" s="10" t="str">
-        <f t="shared" ref="M3:M4" si="3">_xlfn.CONCAT(LEFT(C3),".",D3)</f>
-        <v>H.Collet</v>
-      </c>
-      <c r="N3" s="11" t="str">
-        <f t="shared" ref="N3:N4" si="4">IF(B3="Herr",_xlfn.CONCAT("Sehr geehrter ",B3," ",D3),_xlfn.CONCAT("Sehr geehrte ",B3," ",D3))</f>
-        <v>Sehr geehrte Frau Collet</v>
-      </c>
-      <c r="P3" s="15" t="s">
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5">
+        <v>8854</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>max_meier@bluewin.ch</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="18" t="str">
+        <f>IF(B5='Set-Up'!$A$2,_xlfn.CONCAT(M5,"@",'Set-Up'!$H$1),_xlfn.CONCAT(M5,"@",'Set-Up'!$H$2))</f>
+        <v>max.meier@bzu.ch</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>max.meier</v>
+      </c>
+      <c r="N5" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>M</v>
+      </c>
+      <c r="O5" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>M.Meier</v>
+      </c>
+      <c r="P5" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>M.Meier</v>
+      </c>
+      <c r="Q5" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>Sehr geehrter Herr Meier</v>
+      </c>
+      <c r="S5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="11">
-        <f t="shared" ref="Q3:Q4" si="5">LEN(P3)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5">
-        <v>8854</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>max.meier</v>
-      </c>
-      <c r="K4" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>M</v>
-      </c>
-      <c r="L4" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>M.Meier</v>
-      </c>
-      <c r="M4" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>M.Meier</v>
-      </c>
-      <c r="N4" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>Sehr geehrter Herr Meier</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="11">
-        <f t="shared" si="5"/>
+      <c r="T5" s="11">
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{15C2D9D1-8072-442A-B263-13002E81ECA7}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{DC1420B5-7D2A-4074-8374-5F0AAF3D9290}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{00D7AFD7-1A5C-41C6-8F30-3CF5FAAEFE12}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{15C2D9D1-8072-442A-B263-13002E81ECA7}"/>
+    <hyperlink ref="J4" r:id="rId2" xr:uid="{DC1420B5-7D2A-4074-8374-5F0AAF3D9290}"/>
+    <hyperlink ref="J5" r:id="rId3" xr:uid="{00D7AFD7-1A5C-41C6-8F30-3CF5FAAEFE12}"/>
+    <hyperlink ref="K2" r:id="rId4" display="walter.rothlin@bzu.ch" xr:uid="{F7F24014-1723-49B1-BDEE-8DA46D63B2FC}"/>
+    <hyperlink ref="K4:K5" r:id="rId5" display="walter.rothlin@bzu.ch" xr:uid="{07674163-4AD1-4874-AB5C-CAF28A4AAAD4}"/>
+    <hyperlink ref="K3" r:id="rId6" display="walter.rothlin@bzu.ch" xr:uid="{8947589A-28E7-41AF-83C1-C58F1E56EEDF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{CB24CE03-12D7-403A-A408-7410D843ADD4}">
-            <xm:f>Q2&lt;'Set-Up'!$E$1</xm:f>
+          <x14:cfRule type="expression" priority="5" id="{CB24CE03-12D7-403A-A408-7410D843ADD4}">
+            <xm:f>T2&lt;'Set-Up'!$E$1</xm:f>
             <x14:dxf>
               <font>
                 <color theme="0"/>
@@ -1002,8 +1307,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="7" id="{DC7BFD7D-9A23-4324-A418-76B1C1644AD9}">
-            <xm:f>Q2&gt;='Set-Up'!$E$1</xm:f>
+          <x14:cfRule type="expression" priority="11" id="{DC7BFD7D-9A23-4324-A418-76B1C1644AD9}">
+            <xm:f>T2&gt;='Set-Up'!$E$1</xm:f>
             <x14:dxf>
               <font>
                 <color theme="1" tint="4.9989318521683403E-2"/>
@@ -1015,7 +1320,36 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>P2:P4</xm:sqref>
+          <xm:sqref>S2:S5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{816A8B5D-A062-4985-8884-3BA7221BE38E}">
+            <xm:f>T2&gt;='Set-Up'!$E$1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1" tint="4.9989318521683403E-2"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="1" tint="4.9989318521683403E-2"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{CC934A0E-4E8B-4C9E-9C1C-987E303AD225}">
+            <xm:f>T2&gt;='Set-Up'!$E$1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1" tint="4.9989318521683403E-2"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>V2</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1025,13 +1359,13 @@
           <x14:formula1>
             <xm:f>'Set-Up'!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A4</xm:sqref>
+          <xm:sqref>A2:B5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="Kein guter Gender!!!!" promptTitle="Geschlecht eingeben" prompt="Bitte Geschlecht erfassen" xr:uid="{4A27CF19-A25F-4033-BF02-909C26145CEC}">
           <x14:formula1>
             <xm:f>'Set-Up'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B4</xm:sqref>
+          <xm:sqref>C2:C5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1041,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CAF3A8-4BB6-4DAA-93E9-58DD7687B8DF}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1052,41 +1386,55 @@
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" customWidth="1"/>
     <col min="4" max="4" width="23.08984375" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E1" s="17">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="16" t="str">
+        <f>_xlfn.CONCAT("stud.",H1)</f>
+        <v>stud.bzu.ch</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/DatenFiles/__In_Klassen_erarbeitet/2023_BZU_TI23BLe_M/Adressliste.xlsx
+++ b/DatenFiles/__In_Klassen_erarbeitet/2023_BZU_TI23BLe_M/Adressliste.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\DatenFiles\__In_Klassen_erarbeitet\2023_BZU_TI23BLe_M\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7DC585-3ABD-4652-9A1D-B27BCAFB30A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF46EDE-7557-40F5-92E2-82A63284F257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{83E8BE38-9732-49D2-B654-EC0F79113139}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{83E8BE38-9732-49D2-B654-EC0F79113139}"/>
   </bookViews>
   <sheets>
     <sheet name="Turnverein" sheetId="1" r:id="rId1"/>
     <sheet name="Set-Up" sheetId="2" r:id="rId2"/>
+    <sheet name="Messwerte" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
   <si>
     <t>Gender</t>
   </si>
@@ -190,13 +191,88 @@
   </si>
   <si>
     <t>Siebnen</t>
+  </si>
+  <si>
+    <t>Messwerte</t>
+  </si>
+  <si>
+    <t>Spannung</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>[V] Volt</t>
+  </si>
+  <si>
+    <t>Stromstärke</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>[A] Ampere</t>
+  </si>
+  <si>
+    <t>U = f(I)</t>
+  </si>
+  <si>
+    <t>Gesucht:</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Lineare Funktion:</t>
+  </si>
+  <si>
+    <t>y=ax + c</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Steigung</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>y-Achsenabschnitt</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y=a*x + c</t>
+  </si>
+  <si>
+    <t>U = 2*I</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Widerstand</t>
+  </si>
+  <si>
+    <t>[Ohm]</t>
+  </si>
+  <si>
+    <t>Ω</t>
+  </si>
+  <si>
+    <t>U = R * I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +287,34 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -426,7 +530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -451,135 +555,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="4">
     <dxf>
       <font>
         <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
@@ -628,6 +622,1013 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Stromkreis</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Messwerte!$G$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Messwerte!$G$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC4D-4FA7-8C60-698250BE6993}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Messwerte!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y=a*x + c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Messwerte!$G$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Messwerte!$G$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC4D-4FA7-8C60-698250BE6993}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1117560239"/>
+        <c:axId val="1110485055"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1117560239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1110485055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1110485055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1117560239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{643613E3-6734-9B20-C654-B0364C11BD3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -932,8 +1933,8 @@
   </sheetPr>
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1440,4 +2441,195 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955B6924-CB31-4128-8927-68F86EFE23CD}">
+  <dimension ref="C4:S15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="3.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="D4" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C5" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C6" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0</v>
+      </c>
+      <c r="H6" s="26">
+        <v>1.9</v>
+      </c>
+      <c r="I6" s="26">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J6" s="26">
+        <v>6</v>
+      </c>
+      <c r="K6" s="26">
+        <v>8.1</v>
+      </c>
+      <c r="L6" s="26">
+        <v>10.1</v>
+      </c>
+      <c r="M6" s="26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C7" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25">
+        <f>$O$14*G5+$O$15</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
+        <f t="shared" ref="H7:M7" si="0">$O$14*H5+$O$15</f>
+        <v>2</v>
+      </c>
+      <c r="I7" s="25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J7" s="25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K7" s="25">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L7" s="25">
+        <f>$O$14*L5+$O$15</f>
+        <v>10</v>
+      </c>
+      <c r="M7" s="25">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="17">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>72</v>
+      </c>
+      <c r="R14" t="s">
+        <v>73</v>
+      </c>
+      <c r="S14" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="M15" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" s="17">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>